--- a/VR_Disaster_Sound_List.xlsx
+++ b/VR_Disaster_Sound_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonod\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267505C3-596E-4F11-A3A2-A8787FA90D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DC394C-ADC4-499D-9102-B6F97A78744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="共用UI" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="313">
   <si>
     <t>編號</t>
   </si>
@@ -344,46 +344,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>落石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rock_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EOR-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EOR-02</t>
-  </si>
-  <si>
-    <t>EOR-03</t>
-  </si>
-  <si>
-    <t>Rock_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rock_03</t>
-  </si>
-  <si>
-    <t>EOR-04</t>
-  </si>
-  <si>
-    <t>Rock_04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹哨聲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EOW-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>圖書館BGM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1000,10 +960,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>whistle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>101_EN_Table</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1253,6 +1209,25 @@
   </si>
   <si>
     <t>TCV-02</t>
+  </si>
+  <si>
+    <t>7/27 UPDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/28 UPDATE</t>
+  </si>
+  <si>
+    <t>hmu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地鳴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOE-03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1283,7 +1258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1311,6 +1286,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1365,7 +1352,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1670,25 +1658,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C6B98E-E616-42E7-AEA9-B373CAB87B0C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.9375" customWidth="1"/>
-    <col min="3" max="3" width="43.87890625" customWidth="1"/>
-    <col min="4" max="4" width="33.17578125" customWidth="1"/>
+    <col min="1" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1697,86 +1685,86 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>12</v>
@@ -1785,15 +1773,18 @@
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
@@ -1802,15 +1793,18 @@
         <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>16</v>
@@ -1819,36 +1813,39 @@
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1861,25 +1858,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638E24D1-9AF5-4786-A6BE-428D34DE4985}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.9375" customWidth="1"/>
-    <col min="3" max="3" width="43.87890625" customWidth="1"/>
-    <col min="4" max="4" width="33.17578125" customWidth="1"/>
+    <col min="1" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1888,75 +1885,75 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -1966,12 +1963,12 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>42</v>
@@ -1981,239 +1978,242 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>34</v>
@@ -2222,66 +2222,70 @@
         <v>35</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="B25" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>180</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>48</v>
@@ -2290,32 +2294,38 @@
         <v>49</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>53</v>
@@ -2324,32 +2334,38 @@
         <v>54</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>21</v>
@@ -2358,41 +2374,47 @@
         <v>24</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2407,25 +2429,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7490B2-9DAE-4DC5-BCA9-47EA738D106D}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.9375" customWidth="1"/>
-    <col min="3" max="3" width="43.87890625" customWidth="1"/>
-    <col min="4" max="4" width="33.17578125" customWidth="1"/>
+    <col min="1" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2434,150 +2456,150 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>67</v>
@@ -2586,15 +2608,18 @@
         <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>68</v>
@@ -2603,15 +2628,18 @@
         <v>61</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>69</v>
@@ -2620,15 +2648,18 @@
         <v>62</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>70</v>
@@ -2637,15 +2668,18 @@
         <v>65</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>71</v>
@@ -2654,15 +2688,18 @@
         <v>63</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>72</v>
@@ -2671,15 +2708,15 @@
         <v>64</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>74</v>
@@ -2688,15 +2725,18 @@
         <v>73</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>78</v>
@@ -2705,103 +2745,36 @@
         <v>77</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>81</v>
+        <v>168</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{8E7490B2-9DAE-4DC5-BCA9-47EA738D106D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
-    <sortCondition ref="B2:B23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
+    <sortCondition ref="B2:B18"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2810,25 +2783,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43CEEB0-2429-4D4C-8332-0D285EA27A82}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.9375" customWidth="1"/>
-    <col min="3" max="3" width="43.87890625" customWidth="1"/>
-    <col min="4" max="4" width="33.17578125" customWidth="1"/>
+    <col min="1" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2837,304 +2810,310 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="s">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B19" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5" t="s">
+      <c r="E19" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3148,25 +3127,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295F9944-4685-40FC-A828-69D0799581A0}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.9375" customWidth="1"/>
-    <col min="3" max="3" width="43.87890625" customWidth="1"/>
-    <col min="4" max="4" width="33.17578125" customWidth="1"/>
+    <col min="1" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3175,486 +3155,492 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E28" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="6" t="s">
+      <c r="B29" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E31" s="2"/>
     </row>

--- a/VR_Disaster_Sound_List.xlsx
+++ b/VR_Disaster_Sound_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonod\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DC394C-ADC4-499D-9102-B6F97A78744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF6E8A7-8B8C-4172-B9C2-56A6867630AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="共用UI" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="311">
   <si>
     <t>編號</t>
   </si>
@@ -458,46 +458,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FOH-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Window Breaker Swing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>揮舞車窗擊破器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Window Breaker hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>車窗擊破器交擊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOH-02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOG-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>車窗脆裂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>車窗脆裂(中間擊破)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOG-02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FBGM-02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -992,10 +952,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>glassBreak_MID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FCV-02</t>
   </si>
   <si>
@@ -1080,10 +1036,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TOR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FS_00_WallBreak</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1227,6 +1179,46 @@
   </si>
   <si>
     <t>EOE-03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/9 UPDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/8 UPDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOD-04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city disaster ambience</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>環境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOR-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOR-3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1661,22 +1653,22 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.87890625" customWidth="1"/>
+    <col min="4" max="4" width="33.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1685,86 +1677,86 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>12</v>
@@ -1773,18 +1765,18 @@
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
@@ -1793,18 +1785,18 @@
         <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>16</v>
@@ -1813,39 +1805,39 @@
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1860,23 +1852,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638E24D1-9AF5-4786-A6BE-428D34DE4985}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.87890625" customWidth="1"/>
+    <col min="4" max="4" width="33.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1885,75 +1877,75 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -1963,12 +1955,12 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>42</v>
@@ -1978,242 +1970,242 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>34</v>
@@ -2222,18 +2214,18 @@
         <v>35</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>37</v>
@@ -2242,33 +2234,33 @@
         <v>38</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>45</v>
@@ -2277,15 +2269,15 @@
         <v>46</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>48</v>
@@ -2294,38 +2286,38 @@
         <v>49</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>53</v>
@@ -2334,18 +2326,18 @@
         <v>54</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>19</v>
@@ -2354,18 +2346,18 @@
         <v>20</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>21</v>
@@ -2374,47 +2366,50 @@
         <v>24</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2432,22 +2427,22 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.87890625" customWidth="1"/>
+    <col min="4" max="4" width="33.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2456,150 +2451,150 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>67</v>
@@ -2608,18 +2603,18 @@
         <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>68</v>
@@ -2628,18 +2623,18 @@
         <v>61</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>69</v>
@@ -2648,18 +2643,18 @@
         <v>62</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>70</v>
@@ -2668,18 +2663,18 @@
         <v>65</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>71</v>
@@ -2688,18 +2683,18 @@
         <v>63</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>72</v>
@@ -2708,15 +2703,15 @@
         <v>64</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>74</v>
@@ -2725,18 +2720,18 @@
         <v>73</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>78</v>
@@ -2745,30 +2740,30 @@
         <v>77</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2783,25 +2778,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43CEEB0-2429-4D4C-8332-0D285EA27A82}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.87890625" customWidth="1"/>
+    <col min="4" max="4" width="33.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2810,165 +2805,165 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>96</v>
@@ -2977,18 +2972,18 @@
         <v>97</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>100</v>
@@ -2997,18 +2992,18 @@
         <v>101</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>104</v>
@@ -3017,108 +3012,69 @@
         <v>103</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>105</v>
       </c>
       <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>168</v>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
-    <sortCondition ref="A2:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+    <sortCondition ref="A2:A16"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3127,26 +3083,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295F9944-4685-40FC-A828-69D0799581A0}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.87890625" customWidth="1"/>
+    <col min="4" max="4" width="33.1171875" customWidth="1"/>
+    <col min="6" max="6" width="20.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3155,494 +3111,561 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="E28" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
